--- a/target/test-classes/com/happiestmind/data/SmokeTests.xlsx
+++ b/target/test-classes/com/happiestmind/data/SmokeTests.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0" showInkAnnotation="0"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="16060" windowWidth="25600" xWindow="36280" yWindow="220"/>
+    <workbookView activeTab="2" tabRatio="500" windowHeight="16060" windowWidth="25600" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" r:id="rId1" sheetId="1"/>
     <sheet name="GoogleSearchTest" r:id="rId2" sheetId="2"/>
+    <sheet name="GoogleSearch1Test" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>TCID</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>not Google</t>
+  </si>
+  <si>
+    <t>GoogleSearch1Test</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -131,7 +135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
@@ -146,6 +150,8 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -158,13 +164,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="13"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="3"/>
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
@@ -501,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -538,6 +546,20 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -556,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -640,4 +662,91 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showRuler="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.76953125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>